--- a/sheets/MateriaisContratada.xlsx
+++ b/sheets/MateriaisContratada.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26F2C1-8CA4-4C13-960C-7B6191F8CD18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B505938-35E3-4150-AA79-F93A79810D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$A$28</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>50000017</t>
   </si>
@@ -182,6 +185,12 @@
   </si>
   <si>
     <t>OBTURADOR 1/2 POL. PARA RAMAL PREDIAL</t>
+  </si>
+  <si>
+    <t>REGISTRO PVC ESFERA DN 25 ( 3/4") ROSCA</t>
+  </si>
+  <si>
+    <t>30012631</t>
   </si>
 </sst>
 </file>
@@ -217,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -225,6 +234,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +743,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
